--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1101\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C21F82-F0BE-4AF2-938A-335902AA4A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C8576-9C7C-4870-8D99-06F5123AA65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2492,14 +2492,14 @@
   </sheetPr>
   <dimension ref="B1:N999"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -3057,7 +3057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4229,7 +4229,7 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C8576-9C7C-4870-8D99-06F5123AA65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14A580-7E28-40E3-945D-A33DB901A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -2492,7 +2492,7 @@
   </sheetPr>
   <dimension ref="B1:N999"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4229,7 +4229,7 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T03 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14A580-7E28-40E3-945D-A33DB901A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3825DB-EBD7-40AC-B954-638CA1E91434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -104,16 +104,10 @@
     <t xml:space="preserve">Casos de Pruebas </t>
   </si>
   <si>
-    <t>2° Tanda de Casos de Uso</t>
-  </si>
-  <si>
     <t>Testify</t>
   </si>
   <si>
     <t>OSLO</t>
-  </si>
-  <si>
-    <t>Iteración N° 3, Fase Contrucción</t>
   </si>
   <si>
     <t>Caso de Uso 08 Consultar proyecto asignado</t>
@@ -313,6 +307,12 @@
   </si>
   <si>
     <t>Se muestra la pantalla  con el titulo "seleccione un proyecto para continuar" seguido de una lista desplegable con los proyectos permitidos únicamente</t>
+  </si>
+  <si>
+    <t>Fase Transición</t>
+  </si>
+  <si>
+    <t>3° Tanda de Casos de Uso</t>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA2F3E-CDFF-4C79-AD35-CED339D9040D}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,7 @@
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1071,7 +1071,7 @@
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1083,7 +1083,7 @@
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1095,7 +1095,7 @@
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2492,8 +2492,8 @@
   </sheetPr>
   <dimension ref="B1:N999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A17" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2518,7 @@
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2567,28 +2567,28 @@
     </row>
     <row r="4" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F4" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -2597,10 +2597,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>14</v>
@@ -2608,28 +2608,28 @@
     </row>
     <row r="5" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F5" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -2638,10 +2638,10 @@
         <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>14</v>
@@ -2649,28 +2649,28 @@
     </row>
     <row r="6" spans="2:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F6" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2679,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>17</v>
@@ -2690,28 +2690,28 @@
     </row>
     <row r="7" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F7" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -2720,10 +2720,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>17</v>
@@ -2731,28 +2731,28 @@
     </row>
     <row r="8" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F8" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -2761,10 +2761,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>14</v>
@@ -2772,28 +2772,28 @@
     </row>
     <row r="9" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F9" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -2802,10 +2802,10 @@
         <v>20</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>14</v>
@@ -2813,28 +2813,28 @@
     </row>
     <row r="10" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F10" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -2843,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>14</v>
@@ -2854,28 +2854,28 @@
     </row>
     <row r="11" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F11" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -2884,10 +2884,10 @@
         <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>17</v>
@@ -2895,28 +2895,28 @@
     </row>
     <row r="12" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F12" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
@@ -2925,10 +2925,10 @@
         <v>20</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>17</v>
@@ -2936,28 +2936,28 @@
     </row>
     <row r="13" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F13" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
@@ -2966,10 +2966,10 @@
         <v>20</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>14</v>
@@ -2977,28 +2977,28 @@
     </row>
     <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F14" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>22</v>
@@ -3007,10 +3007,10 @@
         <v>23</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>14</v>
@@ -3018,40 +3018,40 @@
     </row>
     <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45738</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45739</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45371</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45372</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="L15" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>14</v>
@@ -3074,28 +3074,28 @@
     </row>
     <row r="17" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F17" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
@@ -3104,10 +3104,10 @@
         <v>13</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>14</v>
@@ -3115,28 +3115,28 @@
     </row>
     <row r="18" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F18" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -3145,10 +3145,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>14</v>
@@ -3156,28 +3156,28 @@
     </row>
     <row r="19" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F19" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>19</v>
@@ -3186,10 +3186,10 @@
         <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>14</v>
@@ -3197,28 +3197,28 @@
     </row>
     <row r="20" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3">
-        <v>45371</v>
+        <v>45738</v>
       </c>
       <c r="F20" s="3">
-        <v>45372</v>
+        <v>45739</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
@@ -3227,10 +3227,10 @@
         <v>20</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>14</v>
@@ -4230,7 +4230,7 @@
   <dimension ref="B1:M993"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4254,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4299,25 +4299,25 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="F4" s="3">
-        <v>45603</v>
+        <v>45739</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>19</v>
@@ -4326,10 +4326,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -4337,25 +4337,25 @@
     </row>
     <row r="5" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="F5" s="3">
-        <v>45603</v>
+        <v>45739</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>19</v>
@@ -4364,10 +4364,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -4375,25 +4375,25 @@
     </row>
     <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="F6" s="3">
-        <v>45603</v>
+        <v>45739</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>19</v>
@@ -4402,10 +4402,10 @@
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -4413,25 +4413,25 @@
     </row>
     <row r="7" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45738</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45739</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45603</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45603</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
@@ -4440,10 +4440,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
